--- a/DbLayouts/L5-管理性作業/PfItDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfItDetail.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
@@ -96,31 +96,31 @@
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BormNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>額度編號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>撥款序號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>PfItDetail</t>
@@ -128,7 +128,7 @@
   </si>
   <si>
     <t>DecimalD</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>WorkMonth,CustNo,FacmNo,BormNo,PerfDate</t>
@@ -136,47 +136,47 @@
   </si>
   <si>
     <t>WorkSeason</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FacMain.ProdNo 商品代碼</t>
@@ -192,11 +192,11 @@
   </si>
   <si>
     <t>DeptManager</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>RepayType</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,FacmNo,BormNo,PerfDate</t>
@@ -212,35 +212,35 @@
   </si>
   <si>
     <t>ProdCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DeptCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DistCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>UnitCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DistManager</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>UnitManager</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>PerfCnt</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>PerfAmt</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>findByWorkMonth</t>
@@ -267,7 +267,7 @@
   </si>
   <si>
     <t>DrawdownDate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>findByDrawdownDate</t>
@@ -291,75 +291,75 @@
   </si>
   <si>
     <t>業績日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>戶號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>還款類別</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>商品代碼</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>是否計件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>單位代號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>區部代號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>部室代號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>介紹人</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>處經理代號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>區經理代號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>部經理代號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>件數</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>業務報酬</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>業績金額</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>工作月</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>工作季</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>計件代碼</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Y/N</t>
@@ -372,19 +372,19 @@
   </si>
   <si>
     <t>撥款日</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DrawdownAmt</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>撥款金額/追回金額</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CntingCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CdBcm.District 區部</t>
@@ -396,22 +396,22 @@
   </si>
   <si>
     <t>PerfReward</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>PerfEqAmt</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DecimalD</t>
   </si>
   <si>
     <t>換算業績</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>findByRewardDate</t>
@@ -440,7 +440,7 @@
   </si>
   <si>
     <t>Introducer</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Introducer ASC,CustNo ASC, FacmNo ASC, BormNo ASC</t>
@@ -472,7 +472,7 @@
   </si>
   <si>
     <t>PerfDate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>保費檢核時，重算更新</t>
@@ -488,7 +488,7 @@
   </si>
   <si>
     <t>WorkMonth</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>RewardDate</t>
@@ -500,7 +500,7 @@
   </si>
   <si>
     <t>LogNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>序號</t>
@@ -552,11 +552,11 @@
   </si>
   <si>
     <t>PieceCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>0.撥款(計件代碼變更) 2.部分償還 3.提前結案 4.人工維護 5.保費檢核追回</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>0:尚未產生媒體檔
@@ -570,7 +570,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -646,25 +646,11 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="思源宋體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="思源宋體"/>
-      <family val="1"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -675,16 +661,10 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -782,7 +762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,143 +784,131 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1251,27 +1219,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="15" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="90.5546875" style="23" customWidth="1"/>
-    <col min="8" max="8" width="41" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="21.44140625" style="7"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.5546875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="41" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
@@ -1280,702 +1248,702 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="8" t="s">
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="52" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="49" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="52" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" ht="22.8" customHeight="1">
-      <c r="A6" s="49" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="49" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="51"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1">
-      <c r="A8" s="8" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="14" customFormat="1">
-      <c r="A9" s="31">
+    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-    </row>
-    <row r="10" spans="1:7" ht="75.599999999999994" customHeight="1">
-      <c r="A10" s="18">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="45"/>
+    </row>
+    <row r="10" spans="1:7" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="43">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <v>8</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="18">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="43">
         <v>3</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="31">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="43">
         <v>4</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="31">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="43">
         <v>5</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="31">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="43">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="20">
         <v>1</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="46" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="31">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="43">
         <v>7</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="31">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="43">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="20">
         <v>5</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="31">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="43">
         <v>9</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="31">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="43">
         <v>10</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="20">
         <v>1</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="31">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="43">
         <v>11</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="20">
         <v>16</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <v>2</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="31">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="43">
         <v>12</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="20">
         <v>6</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="31">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="43">
         <v>13</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="20">
         <v>6</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="31">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="43">
         <v>14</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="20">
         <v>6</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="31">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="43">
         <v>15</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="20">
         <v>8</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="48.6">
-      <c r="A24" s="31">
+    <row r="24" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="43">
         <v>16</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="20">
         <v>8</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="31">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="43">
         <v>17</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="20">
         <v>8</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="31">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="43">
         <v>18</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="20">
         <v>8</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="32.4">
-      <c r="A27" s="31">
+    <row r="27" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="43">
         <v>19</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="26">
         <v>5</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="14">
         <v>1</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="31">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="43">
         <v>20</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="20">
         <v>16</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="14">
         <v>2</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="31">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="43">
         <v>21</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="20">
         <v>16</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="14">
         <v>2</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="31">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="43">
         <v>22</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="20">
         <v>16</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="43">
         <v>23</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="31">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="43">
         <v>24</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="31">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="43">
         <v>25</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="31">
         <v>8</v>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="32" t="s">
+      <c r="F33" s="47"/>
+      <c r="G33" s="28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="30" customFormat="1">
-      <c r="A34" s="31">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="43">
         <v>26</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="31">
         <v>8</v>
       </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="32"/>
-    </row>
-    <row r="35" spans="1:7" s="30" customFormat="1" ht="64.8">
-      <c r="A35" s="31">
+      <c r="F34" s="48"/>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="43">
         <v>27</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35" s="34">
         <v>1</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42" t="s">
+      <c r="F35" s="35"/>
+      <c r="G35" s="36" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="31">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="43">
         <v>28</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="31">
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="43">
         <v>29</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="31">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="43">
         <v>30</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="22"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="31">
+      <c r="E38" s="20"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="43">
         <v>31</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="20">
         <v>6</v>
       </c>
     </row>
@@ -2001,10 +1969,10 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="1" bestFit="1" customWidth="1"/>
@@ -2012,7 +1980,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +1991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
@@ -2034,7 +2002,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -2045,7 +2013,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -2056,7 +2024,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
@@ -2067,7 +2035,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -2078,7 +2046,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -2089,26 +2057,26 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="37" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.2" customHeight="1">
+    <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="38" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>128</v>
       </c>
@@ -2119,7 +2087,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>131</v>
       </c>

--- a/DbLayouts/L5-管理性作業/PfItDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfItDetail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="148">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -564,6 +564,52 @@
 2:人工維護後之原資料(不出媒體)
 3.保費檢核結果為Y時已追回撥款，還款不用追回</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjustFg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:無調整
+1:調整本月   
+2:調整本月及季累計</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjPerfEqAmt</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjPerfReward</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjPerfAmt</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjCntingCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整記號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整後換算業績</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>業調整後務報酬</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整後業績金額</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整後是否計件</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -880,6 +926,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -891,24 +955,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1217,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1236,10 +1282,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
@@ -1251,8 +1297,8 @@
       <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1264,10 +1310,10 @@
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="11" t="s">
         <v>124</v>
       </c>
@@ -1279,10 +1325,10 @@
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="9"/>
@@ -1290,10 +1336,10 @@
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1303,10 +1349,10 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="3" t="s">
         <v>46</v>
       </c>
@@ -1316,10 +1362,10 @@
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="3" t="s">
         <v>112</v>
       </c>
@@ -1352,13 +1398,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43">
+      <c r="A9" s="39">
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="40" t="s">
         <v>122</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -1366,10 +1412,11 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:7" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43">
+      <c r="A10" s="39">
+        <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -1389,7 +1436,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="43">
+      <c r="A11" s="39">
+        <f t="shared" ref="A11:A44" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -1406,7 +1454,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="43">
+      <c r="A12" s="39">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -1423,7 +1472,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="43">
+      <c r="A13" s="39">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -1440,7 +1490,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="43">
+      <c r="A14" s="39">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -1455,12 +1506,13 @@
       <c r="E14" s="20">
         <v>1</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="42" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="43">
+      <c r="A15" s="39">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -1477,7 +1529,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="43">
+      <c r="A16" s="39">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -1497,7 +1550,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="43">
+      <c r="A17" s="39">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -1514,7 +1568,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="43">
+      <c r="A18" s="39">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -1534,7 +1589,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+      <c r="A19" s="39">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -1557,7 +1613,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="43">
+      <c r="A20" s="39">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
@@ -1577,7 +1634,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="43">
+      <c r="A21" s="39">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -1597,7 +1655,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="43">
+      <c r="A22" s="39">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -1617,7 +1676,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="43">
+      <c r="A23" s="39">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -1637,7 +1697,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="43">
+      <c r="A24" s="39">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -1660,7 +1721,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="43">
+      <c r="A25" s="39">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -1680,7 +1742,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="43">
+      <c r="A26" s="39">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -1700,7 +1763,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="43">
+      <c r="A27" s="39">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -1723,7 +1787,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="43">
+      <c r="A28" s="39">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
@@ -1746,7 +1811,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="43">
+      <c r="A29" s="39">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -1769,7 +1835,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="43">
+      <c r="A30" s="39">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
@@ -1789,7 +1856,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="43">
+      <c r="A31" s="39">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
@@ -1806,7 +1874,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="43">
+      <c r="A32" s="39">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -1823,7 +1892,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="43">
+      <c r="A33" s="39">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B33" s="29" t="s">
@@ -1838,13 +1908,14 @@
       <c r="E33" s="31">
         <v>8</v>
       </c>
-      <c r="F33" s="47"/>
+      <c r="F33" s="43"/>
       <c r="G33" s="28" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="43">
+      <c r="A34" s="39">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B34" s="29" t="s">
@@ -1859,11 +1930,12 @@
       <c r="E34" s="31">
         <v>8</v>
       </c>
-      <c r="F34" s="48"/>
+      <c r="F34" s="44"/>
       <c r="G34" s="28"/>
     </row>
     <row r="35" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="43">
+      <c r="A35" s="39">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B35" s="28" t="s">
@@ -1883,67 +1955,181 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="43">
+    <row r="36" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="39">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="34">
+        <v>1</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="39">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="31">
+        <v>16</v>
+      </c>
+      <c r="F37" s="35">
+        <v>2</v>
+      </c>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="39">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="31">
+        <v>16</v>
+      </c>
+      <c r="F38" s="35">
+        <v>2</v>
+      </c>
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="39">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="B39" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="31">
+        <v>16</v>
+      </c>
+      <c r="F39" s="35">
+        <v>2</v>
+      </c>
+      <c r="G39" s="36"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="39">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="B40" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="31">
+        <v>1</v>
+      </c>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="39">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E36" s="20"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="43">
-        <v>29</v>
-      </c>
-      <c r="B37" s="18" t="s">
+      <c r="B41" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="20"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="39">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="B42" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D42" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E42" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="43">
-        <v>30</v>
-      </c>
-      <c r="B38" s="18" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="39">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C43" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D43" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="20"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="43">
-        <v>31</v>
-      </c>
-      <c r="B39" s="18" t="s">
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="39">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C44" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D44" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E44" s="20">
         <v>6</v>
       </c>
     </row>

--- a/DbLayouts/L5-管理性作業/PfItDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfItDetail.xlsx
@@ -123,10 +123,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>PfItDetail</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>DecimalD</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -192,10 +188,6 @@
   </si>
   <si>
     <t>DeptManager</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepayType</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -566,10 +558,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>AdjustFg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>0:無調整
 1:調整本月   
 2:調整本月及季累計</t>
@@ -610,6 +598,18 @@
   <si>
     <t>調整後是否計件</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PfItDetail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayType</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjRange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B6" s="46"/>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
@@ -1402,13 +1402,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1420,19 +1420,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="20">
         <v>8</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1444,7 +1444,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>25</v>
@@ -1495,10 +1495,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>25</v>
@@ -1507,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1516,13 +1516,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="20">
         <v>8</v>
@@ -1534,19 +1534,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="20">
         <v>5</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1555,13 +1555,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="20">
         <v>1</v>
@@ -1573,19 +1573,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="20">
         <v>1</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1594,10 +1594,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>25</v>
@@ -1609,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1618,19 +1618,19 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="20">
         <v>6</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1639,19 +1639,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="20">
         <v>6</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1660,19 +1660,19 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="20">
         <v>6</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1681,10 +1681,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>24</v>
@@ -1693,7 +1693,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -1702,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>24</v>
@@ -1714,10 +1714,10 @@
         <v>8</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1726,10 +1726,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>24</v>
@@ -1738,7 +1738,7 @@
         <v>8</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1747,10 +1747,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>24</v>
@@ -1759,7 +1759,7 @@
         <v>8</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -1768,10 +1768,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>25</v>
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1792,10 +1792,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>25</v>
@@ -1807,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1816,10 +1816,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>25</v>
@@ -1831,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1840,10 +1840,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>25</v>
@@ -1861,10 +1861,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>25</v>
@@ -1879,10 +1879,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>25</v>
@@ -1897,20 +1897,20 @@
         <v>25</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E33" s="31">
         <v>8</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1919,13 +1919,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E34" s="31">
         <v>8</v>
@@ -1939,20 +1939,20 @@
         <v>27</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E35" s="34">
         <v>1</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1961,10 +1961,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>25</v>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1983,10 +1983,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>25</v>
@@ -2005,10 +2005,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>25</v>
@@ -2027,10 +2027,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>25</v>
@@ -2049,20 +2049,20 @@
         <v>32</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E40" s="31">
         <v>1</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2071,13 +2071,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="D41" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="E41" s="20"/>
     </row>
@@ -2087,13 +2087,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="D42" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>36</v>
       </c>
       <c r="E42" s="20">
         <v>6</v>
@@ -2105,13 +2105,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>38</v>
-      </c>
       <c r="D43" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E43" s="20"/>
     </row>
@@ -2121,13 +2121,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>40</v>
-      </c>
       <c r="D44" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E44" s="20">
         <v>6</v>
@@ -2179,109 +2179,109 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L5-管理性作業/PfItDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfItDetail.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="149">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>DecimalD</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -203,23 +199,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ProdCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>DistCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistManager</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -298,10 +278,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>是否計件</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>單位代號</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -358,11 +334,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>介紹人-件數不會有小數點
-[是否計件]為Y,件數為1;若為N,件數為0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>撥款日</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -385,10 +356,6 @@
   <si>
     <t>CdBcm.DeptCode 部室代號</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PerfReward</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>PerfEqAmt</t>
@@ -543,10 +510,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>PieceCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>0.撥款(計件代碼變更) 2.部分償還 3.提前結案 4.人工維護 5.保費檢核追回</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -608,7 +571,48 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProdCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>AdjRange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PieceCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerfReward</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistManager</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否計件</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/N，追回時為扣除追回後重算後之是否計件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>介紹人-件數不會有小數點，追回時為扣除追回後重算後之筆數
+[是否計件]為Y,件數為1;若為N,件數為0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1265,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1287,7 +1291,7 @@
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1315,7 +1319,7 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1341,7 +1345,7 @@
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
@@ -1354,7 +1358,7 @@
       </c>
       <c r="B6" s="46"/>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
@@ -1367,7 +1371,7 @@
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
@@ -1402,13 +1406,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1420,19 +1424,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="20">
         <v>8</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1441,10 +1445,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>25</v>
@@ -1495,10 +1499,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>25</v>
@@ -1507,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1516,13 +1520,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="20">
         <v>8</v>
@@ -1534,19 +1538,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="20">
         <v>5</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1555,13 +1559,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="20">
         <v>1</v>
@@ -1573,19 +1577,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="20">
         <v>1</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1594,10 +1598,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>25</v>
@@ -1609,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1618,19 +1622,19 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="20">
         <v>6</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1639,19 +1643,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="20">
         <v>6</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1660,19 +1664,19 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="20">
         <v>6</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1681,10 +1685,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>24</v>
@@ -1693,7 +1697,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -1702,10 +1706,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>24</v>
@@ -1714,10 +1718,10 @@
         <v>8</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1726,10 +1730,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>24</v>
@@ -1738,7 +1742,7 @@
         <v>8</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1747,10 +1751,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>24</v>
@@ -1759,7 +1763,7 @@
         <v>8</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -1768,10 +1772,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>25</v>
@@ -1783,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1792,10 +1796,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>25</v>
@@ -1807,7 +1811,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1816,10 +1820,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>25</v>
@@ -1831,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1840,10 +1844,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>25</v>
@@ -1861,10 +1865,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>25</v>
@@ -1879,10 +1883,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>25</v>
@@ -1897,20 +1901,20 @@
         <v>25</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E33" s="31">
         <v>8</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="28" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1919,13 +1923,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E34" s="31">
         <v>8</v>
@@ -1939,20 +1943,20 @@
         <v>27</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E35" s="34">
         <v>1</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="36" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1961,10 +1965,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>25</v>
@@ -1974,7 +1978,7 @@
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="36" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1983,10 +1987,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>25</v>
@@ -2005,10 +2009,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>25</v>
@@ -2027,10 +2031,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>25</v>
@@ -2049,20 +2053,20 @@
         <v>32</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E40" s="31">
         <v>1</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="36" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2071,13 +2075,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="D41" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="E41" s="20"/>
     </row>
@@ -2087,13 +2091,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="D42" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="E42" s="20">
         <v>6</v>
@@ -2105,13 +2109,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>37</v>
-      </c>
       <c r="D43" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="20"/>
     </row>
@@ -2121,13 +2125,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>39</v>
-      </c>
       <c r="D44" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" s="20">
         <v>6</v>
@@ -2153,9 +2157,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2179,109 +2183,109 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L5-管理性作業/PfItDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfItDetail.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1269,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/DbLayouts/L5-管理性作業/PfItDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfItDetail.xlsx
@@ -346,20 +346,12 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>CntingCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>CdBcm.District 區部</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CdBcm.DeptCode 部室代號</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PerfEqAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DecimalD</t>
@@ -595,10 +587,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>PerfReward</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>DistManager</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -614,6 +602,18 @@
     <t>介紹人-件數不會有小數點，追回時為扣除追回後重算後之筆數
 [是否計件]為Y,件數為1;若為N,件數為0</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CntingCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerfEqAmt</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerfReward</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1269,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
@@ -1406,13 +1406,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>113</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1424,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>62</v>
@@ -1436,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1445,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>63</v>
@@ -1499,7 +1499,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>64</v>
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1538,7 +1538,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>65</v>
@@ -1559,7 +1559,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>78</v>
@@ -1577,10 +1577,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>34</v>
@@ -1589,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1613,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1622,7 +1622,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>66</v>
@@ -1655,7 +1655,7 @@
         <v>6</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1664,7 +1664,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>68</v>
@@ -1676,7 +1676,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1685,7 +1685,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>69</v>
@@ -1721,7 +1721,7 @@
         <v>59</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1730,7 +1730,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>71</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1796,10 +1796,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>88</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>25</v>
@@ -1811,7 +1811,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1820,7 +1820,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>74</v>
@@ -1835,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1865,7 +1865,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>76</v>
@@ -1901,20 +1901,20 @@
         <v>25</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E33" s="31">
         <v>8</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1923,13 +1923,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E34" s="31">
         <v>8</v>
@@ -1943,20 +1943,20 @@
         <v>27</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E35" s="34">
         <v>1</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1965,10 +1965,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>25</v>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1987,10 +1987,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>25</v>
@@ -2009,10 +2009,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>25</v>
@@ -2031,10 +2031,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>25</v>
@@ -2053,10 +2053,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D40" s="29" t="s">
         <v>34</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -2197,10 +2197,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2230,7 +2230,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>55</v>
@@ -2241,7 +2241,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>55</v>
@@ -2249,43 +2249,43 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L5-管理性作業/PfItDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfItDetail.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -270,10 +270,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>還款類別</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>商品代碼</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -480,10 +476,6 @@
   </si>
   <si>
     <t>findByTxFirst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = ,AND PerfDate = ,AND RepayType = ,AND PieceCode = </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -502,10 +494,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0.撥款(計件代碼變更) 2.部分償還 3.提前結案 4.人工維護 5.保費檢核追回</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>0:尚未產生媒體檔
 1:已產生發放媒體-(不可刪除與異動)
 2:人工維護後之原資料(不出媒體)
@@ -559,10 +547,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RepayType</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>CustNo</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -614,6 +598,22 @@
   <si>
     <t>PerfReward</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayType</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.撥款(計件代碼變更) 2.部分償還 3.提前結案 4.人工維護 5.保費檢核追回</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>還款類別</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = ,AND PerfDate = ,AND RepayType = ,AND PieceCode = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1269,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
@@ -1406,13 +1406,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="D9" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>111</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1424,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>62</v>
@@ -1436,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1445,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>63</v>
@@ -1499,10 +1499,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>25</v>
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1523,7 +1523,7 @@
         <v>56</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>26</v>
@@ -1538,10 +1538,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>34</v>
@@ -1559,10 +1559,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>34</v>
@@ -1577,10 +1577,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>34</v>
@@ -1589,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1598,10 +1598,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>25</v>
@@ -1613,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1622,10 +1622,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>34</v>
@@ -1646,7 +1646,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>34</v>
@@ -1655,7 +1655,7 @@
         <v>6</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1664,10 +1664,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>34</v>
@@ -1676,7 +1676,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1685,10 +1685,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>24</v>
@@ -1709,7 +1709,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>24</v>
@@ -1721,7 +1721,7 @@
         <v>59</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1730,10 +1730,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>24</v>
@@ -1754,7 +1754,7 @@
         <v>42</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>24</v>
@@ -1775,7 +1775,7 @@
         <v>48</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>25</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1796,10 +1796,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>25</v>
@@ -1811,7 +1811,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1820,10 +1820,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>25</v>
@@ -1835,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1847,7 +1847,7 @@
         <v>49</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>25</v>
@@ -1865,10 +1865,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>25</v>
@@ -1886,7 +1886,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>25</v>
@@ -1901,20 +1901,20 @@
         <v>25</v>
       </c>
       <c r="B33" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="30" t="s">
-        <v>108</v>
-      </c>
       <c r="D33" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33" s="31">
         <v>8</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1923,13 +1923,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="D34" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" s="31">
         <v>8</v>
@@ -1943,20 +1943,20 @@
         <v>27</v>
       </c>
       <c r="B35" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D35" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" s="34">
         <v>1</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1965,10 +1965,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>25</v>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1987,10 +1987,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>25</v>
@@ -2009,10 +2009,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>25</v>
@@ -2031,10 +2031,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>25</v>
@@ -2053,10 +2053,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D40" s="29" t="s">
         <v>34</v>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2157,9 +2157,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -2197,10 +2197,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2230,7 +2230,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>55</v>
@@ -2241,7 +2241,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>55</v>
@@ -2249,43 +2249,43 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
